--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -91,7 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,40 +543,40 @@
         <v>0.097622</v>
       </c>
       <c r="I2">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J2">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N2">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O2">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P2">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q2">
-        <v>0.005707405148666667</v>
+        <v>0.002638614191111111</v>
       </c>
       <c r="R2">
-        <v>0.051366646338</v>
+        <v>0.02374752772</v>
       </c>
       <c r="S2">
-        <v>0.0003229112314394179</v>
+        <v>0.003739728665320794</v>
       </c>
       <c r="T2">
-        <v>0.0007090836776253807</v>
+        <v>0.007350233166079984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.097622</v>
       </c>
       <c r="I3">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J3">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>0.271551</v>
       </c>
       <c r="O3">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P3">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q3">
         <v>0.002945483524666667</v>
@@ -635,10 +635,10 @@
         <v>0.026509351722</v>
       </c>
       <c r="S3">
-        <v>0.0001666483607453079</v>
+        <v>0.004174656987571023</v>
       </c>
       <c r="T3">
-        <v>0.0003659446343218747</v>
+        <v>0.008205061113550054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.097622</v>
       </c>
       <c r="I4">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J4">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N4">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O4">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P4">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q4">
-        <v>0.4548572459246667</v>
+        <v>0.007082009683777779</v>
       </c>
       <c r="R4">
-        <v>2.729143475548</v>
+        <v>0.06373808715400001</v>
       </c>
       <c r="S4">
-        <v>0.02573472700549202</v>
+        <v>0.01003738807731894</v>
       </c>
       <c r="T4">
-        <v>0.03767407900595749</v>
+        <v>0.01972794000561451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +729,40 @@
         <v>0.097622</v>
       </c>
       <c r="I5">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J5">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N5">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O5">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P5">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q5">
-        <v>0.001881946069111111</v>
+        <v>0.115661813435</v>
       </c>
       <c r="R5">
-        <v>0.016937514622</v>
+        <v>0.69397088061</v>
       </c>
       <c r="S5">
-        <v>0.0001064759740810075</v>
+        <v>0.1639283987189172</v>
       </c>
       <c r="T5">
-        <v>0.0002338115492098339</v>
+        <v>0.2147948975192672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.146372</v>
+      </c>
+      <c r="H6">
+        <v>0.292744</v>
+      </c>
+      <c r="I6">
+        <v>0.8181198275508721</v>
+      </c>
+      <c r="J6">
+        <v>0.7499218681954883</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.2033015</v>
-      </c>
-      <c r="H6">
-        <v>2.406603</v>
-      </c>
-      <c r="I6">
-        <v>0.9736692374282422</v>
-      </c>
-      <c r="J6">
-        <v>0.9610170811328854</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N6">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O6">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P6">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q6">
-        <v>0.2110506599895</v>
+        <v>0.01186881757333333</v>
       </c>
       <c r="R6">
-        <v>1.266303959937</v>
+        <v>0.07121290543999999</v>
       </c>
       <c r="S6">
-        <v>0.01194073782009891</v>
+        <v>0.0168217685829117</v>
       </c>
       <c r="T6">
-        <v>0.01748051572211462</v>
+        <v>0.0220415137773342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H7">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I7">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J7">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.271551</v>
       </c>
       <c r="O7">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P7">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q7">
-        <v>0.1089192418755</v>
+        <v>0.013249154324</v>
       </c>
       <c r="R7">
-        <v>0.6535154512529998</v>
+        <v>0.079494925944</v>
       </c>
       <c r="S7">
-        <v>0.006162388266703307</v>
+        <v>0.01877813072621168</v>
       </c>
       <c r="T7">
-        <v>0.009021362549352877</v>
+        <v>0.02460492932561407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +900,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H8">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I8">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J8">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N8">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O8">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P8">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q8">
-        <v>16.8198891532755</v>
+        <v>0.03185576780133333</v>
       </c>
       <c r="R8">
-        <v>67.27955661310199</v>
+        <v>0.191134606808</v>
       </c>
       <c r="S8">
-        <v>0.9516288011247171</v>
+        <v>0.04514943048657045</v>
       </c>
       <c r="T8">
-        <v>0.9287512195813883</v>
+        <v>0.05915916564917348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +962,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.146372</v>
+      </c>
+      <c r="H9">
+        <v>0.292744</v>
+      </c>
+      <c r="I9">
+        <v>0.8181198275508721</v>
+      </c>
+      <c r="J9">
+        <v>0.7499218681954883</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1.2033015</v>
-      </c>
-      <c r="H9">
-        <v>2.406603</v>
-      </c>
-      <c r="I9">
-        <v>0.9736692374282422</v>
-      </c>
-      <c r="J9">
-        <v>0.9610170811328854</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N9">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O9">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P9">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q9">
-        <v>0.06959133785049999</v>
+        <v>0.5202613434300001</v>
       </c>
       <c r="R9">
-        <v>0.4175480271029999</v>
+        <v>2.08104537372</v>
       </c>
       <c r="S9">
-        <v>0.00393731021672279</v>
+        <v>0.7373704977551783</v>
       </c>
       <c r="T9">
-        <v>0.005763983280029437</v>
+        <v>0.6441162594433667</v>
       </c>
     </row>
   </sheetData>
